--- a/meta/en/8-2-1.xlsx
+++ b/meta/en/8-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>(0312) 32 46 95</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Annual growth rate of real GDP per employed person conveys the annual percentage change in real GDP 
 per employed person in the previous year, expressed as a percentage..</t>
   </si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
